--- a/data/trans_camb/P7B_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P7B_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,53</t>
+          <t>-4,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,87</t>
+          <t>-6,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,21</t>
+          <t>-6,5</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>-5,07</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-5,56</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>-4,48</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,83</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-4,74</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-6,28</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>4,14</t>
+          <t>-5,67</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 3,73</t>
+          <t>-14,12; 6,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,96; 2,82</t>
+          <t>-16,64; 3,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 3,14</t>
+          <t>-16,6; 4,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 16,34</t>
+          <t>-10,2; 9,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 11,5</t>
+          <t>-11,21; 7,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 7,31</t>
+          <t>-14,67; 4,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,47; 4,55</t>
+          <t>-10,03; 4,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 16,49</t>
+          <t>-11,48; 2,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 4,2</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-12,18; 2,35</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-14,02; 1,34</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-4,33; 12,53</t>
+          <t>-12,56; 1,95</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-20,19%</t>
+          <t>-15,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-25,07%</t>
+          <t>-24,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-26,32%</t>
+          <t>-23,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>-2,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>-7,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-8,66%</t>
+          <t>-16,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-17,67%</t>
+          <t>-8,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>-15,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-9,64%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-16,17%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-21,42%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>14,13%</t>
+          <t>-19,35%</t>
         </is>
       </c>
     </row>
@@ -860,62 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-49,37; 16,58</t>
+          <t>-44,95; 26,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-55,58; 11,67</t>
+          <t>-53,22; 17,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-56,26; 16,27</t>
+          <t>-53,18; 20,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,3; 69,29</t>
+          <t>-29,61; 38,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,23; 44,51</t>
+          <t>-31,49; 31,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,07; 27,88</t>
+          <t>-40,76; 19,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,42; 18,51</t>
+          <t>-30,94; 18,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,24; 62,36</t>
+          <t>-35,12; 9,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-32,02; 15,9</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-36,61; 8,62</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-41,32; 4,39</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-13,27; 47,48</t>
+          <t>-39,33; 8,27</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-4,25</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,98</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-1,22</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-1,93</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-2,48</t>
+          <t>-2,4</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 14,88</t>
+          <t>-11,18; 14,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 10,51</t>
+          <t>-13,46; 11,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 12,53</t>
+          <t>-12,21; 13,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 13,76</t>
+          <t>-14,2; 6,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 7,47</t>
+          <t>-12,27; 7,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 8,36</t>
+          <t>-12,94; 5,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 5,63</t>
+          <t>-10,15; 6,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,18; 5,63</t>
+          <t>-9,71; 6,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 7,83</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-9,39; 6,27</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-10,17; 6,02</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-11,22; 6,38</t>
+          <t>-10,61; 6,37</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,01%</t>
+          <t>-4,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>-0,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,14%</t>
+          <t>-7,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-5,62%</t>
+          <t>-3,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,99%</t>
+          <t>-7,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-6,63%</t>
+          <t>-2,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-8,8%</t>
+          <t>-3,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-1,08%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-2,69%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-4,25%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-5,46%</t>
+          <t>-5,27%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-27,89; 49,55</t>
+          <t>-29,13; 52,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,72; 36,39</t>
+          <t>-33,34; 38,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,76; 42,58</t>
+          <t>-30,23; 45,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-37,21; 45,71</t>
+          <t>-23,03; 11,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,65; 14,01</t>
+          <t>-19,8; 14,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,3; 15,67</t>
+          <t>-20,97; 10,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,46; 10,95</t>
+          <t>-20,33; 16,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,3; 10,58</t>
+          <t>-19,63; 14,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 18,74</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-19,07; 15,2</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-20,38; 14,81</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-22,75; 14,98</t>
+          <t>-21,41; 15,78</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,31</t>
+          <t>-3,68</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-10,03</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-6,1</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-1,11</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>-8,41</t>
+          <t>-1,18</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 8,13</t>
+          <t>-11,96; 6,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 7,94</t>
+          <t>-10,2; 8,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 5,67</t>
+          <t>-12,77; 5,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-19,37; -0,31</t>
+          <t>-3,26; 10,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 9,0</t>
+          <t>-5,43; 7,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 7,93</t>
+          <t>-4,97; 7,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 7,61</t>
+          <t>-5,43; 6,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 1,1</t>
+          <t>-5,26; 5,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 6,39</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-5,12; 5,76</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-6,23; 4,83</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>-14,88; -3,1</t>
+          <t>-6,58; 4,97</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,82%</t>
+          <t>-3,28%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,19%</t>
+          <t>-1,76%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,79%</t>
+          <t>-5,32%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-14,51%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-8,05%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,34%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-1,53%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>-11,59%</t>
+          <t>-1,63%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-18,31; 12,6</t>
+          <t>-16,2; 10,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 12,34</t>
+          <t>-14,15; 12,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,67; 8,72</t>
+          <t>-18,24; 8,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,93; -1,08</t>
+          <t>-4,09; 14,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 12,56</t>
+          <t>-6,93; 10,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 11,0</t>
+          <t>-6,25; 10,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 10,64</t>
+          <t>-7,2; 9,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,4; 1,7</t>
+          <t>-7,04; 8,13</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 9,12</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-6,84; 8,3</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-8,37; 7,07</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>-20,02; -4,47</t>
+          <t>-8,92; 7,03</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,31</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>2,91</t>
+          <t>0,12</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 8,74</t>
+          <t>-8,91; 8,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 7,34</t>
+          <t>-9,71; 7,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 4,32</t>
+          <t>-13,48; 3,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 11,06</t>
+          <t>-6,44; 7,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 7,99</t>
+          <t>-4,87; 9,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 9,32</t>
+          <t>-2,96; 10,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 10,18</t>
+          <t>-4,74; 6,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 11,45</t>
+          <t>-4,51; 6,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 5,94</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>-4,67; 6,43</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>-5,18; 5,33</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>-3,48; 9,38</t>
+          <t>-5,22; 5,88</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,04%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,89%</t>
+          <t>-1,97%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-10,39%</t>
+          <t>-9,6%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>1,88%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>-0,2%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>8,2%</t>
+          <t>0,35%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-18,56; 24,06</t>
+          <t>-19,29; 21,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,94; 19,74</t>
+          <t>-20,84; 19,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,45; 11,49</t>
+          <t>-28,23; 10,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 29,33</t>
+          <t>-19,12; 28,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-18,35; 29,68</t>
+          <t>-14,46; 33,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 34,91</t>
+          <t>-8,31; 37,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 38,5</t>
+          <t>-12,37; 18,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 42,36</t>
+          <t>-11,58; 20,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 17,72</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>-12,17; 19,88</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>-13,58; 16,3</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>-9,27; 28,72</t>
+          <t>-13,87; 17,52</t>
         </is>
       </c>
     </row>
@@ -1760,62 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>-1,84</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>2,36</t>
+          <t>-1,82</t>
         </is>
       </c>
     </row>
@@ -1828,62 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 9,98</t>
+          <t>-3,03; 9,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 5,43</t>
+          <t>-4,32; 5,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 3,64</t>
+          <t>-5,06; 3,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 8,98</t>
+          <t>-4,7; 5,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 5,1</t>
+          <t>-5,61; 4,38</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 4,23</t>
+          <t>-8,33; 1,28</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 1,21</t>
+          <t>-2,18; 5,66</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 7,98</t>
+          <t>-3,49; 3,73</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 5,98</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>-3,74; 3,41</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>-5,56; 1,05</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>-1,85; 6,27</t>
+          <t>-5,67; 1,24</t>
         </is>
       </c>
     </row>
@@ -1896,62 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>40,37%</t>
+          <t>35,59%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-8,43%</t>
+          <t>-8,62%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>27,71%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-0,22%</t>
+          <t>-8,29%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-10,46%</t>
+          <t>-35,14%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-35,78%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>29,96%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>19,05%</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>0,43%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>-22,79%</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>29,22%</t>
+          <t>-22,58%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-30,94; 173,28</t>
+          <t>-31,96; 162,53</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-40,56; 103,55</t>
+          <t>-39,64; 104,75</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-53,56; 72,36</t>
+          <t>-49,35; 77,9</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-38,33; 174,43</t>
+          <t>-43,24; 86,51</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-47,4; 88,02</t>
+          <t>-52,95; 75,47</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-51,84; 69,24</t>
+          <t>-72,2; 27,75</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-69,04; 26,59</t>
+          <t>-23,34; 91,23</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-30,73; 126,09</t>
+          <t>-34,97; 61,12</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-22,61; 89,33</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>-37,56; 53,21</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>-52,85; 18,26</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>-18,66; 97,17</t>
+          <t>-53,89; 18,55</t>
         </is>
       </c>
     </row>
@@ -2036,62 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-3,62</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>2,04</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
+          <t>-0,06</t>
         </is>
       </c>
     </row>
@@ -2104,62 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 11,9</t>
+          <t>-6,32; 11,08</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 11,7</t>
+          <t>-7,34; 8,38</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 1,5</t>
+          <t>-11,32; 1,87</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 2,62</t>
+          <t>-1,37; 7,23</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 6,7</t>
+          <t>-1,3; 7,3</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 7,69</t>
+          <t>-1,63; 7,02</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 6,99</t>
+          <t>-2,07; 7,55</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 7,82</t>
+          <t>-2,6; 5,95</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 7,13</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>-1,94; 7,5</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>-4,16; 3,23</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>-4,34; 3,85</t>
+          <t>-4,4; 3,16</t>
         </is>
       </c>
     </row>
@@ -2172,62 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-47,31%</t>
+          <t>-43,52%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-37,93%</t>
+          <t>59,18%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>47,92%</t>
+          <t>58,53%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>65,34%</t>
+          <t>54,54%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>58,76%</t>
+          <t>38,27%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>44,44%</t>
+          <t>26,46%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>30,09%</t>
-        </is>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>35,1%</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>-1,31%</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="inlineStr">
-        <is>
-          <t>-1,83%</t>
+          <t>-1,01%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-60,97; 252,32</t>
+          <t>-63,38; 233,96</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-66,16; 258,62</t>
+          <t>-69,32; 173,2</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-85,34; 48,15</t>
+          <t>-84,51; 56,41</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-82,08; 77,86</t>
+          <t>-26,89; 270,68</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-33,19; 247,74</t>
+          <t>-24,27; 265,75</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-25,25; 265,59</t>
+          <t>-30,47; 253,32</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-25,63; 239,93</t>
+          <t>-30,31; 179,33</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-41,3; 257,4</t>
+          <t>-36,01; 145,8</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-27,57; 172,67</t>
-        </is>
-      </c>
-      <c r="L27" s="2" t="inlineStr">
-        <is>
-          <t>-31,63; 169,57</t>
-        </is>
-      </c>
-      <c r="M27" s="2" t="inlineStr">
-        <is>
-          <t>-50,99; 78,04</t>
-        </is>
-      </c>
-      <c r="N27" s="2" t="inlineStr">
-        <is>
-          <t>-54,81; 88,56</t>
+          <t>-50,43; 76,4</t>
         </is>
       </c>
     </row>
@@ -2312,62 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="inlineStr">
-        <is>
           <t>-1,25</t>
-        </is>
-      </c>
-      <c r="N28" s="2" t="inlineStr">
-        <is>
-          <t>-0,97</t>
         </is>
       </c>
     </row>
@@ -2380,62 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 4,64</t>
+          <t>-4,0; 4,85</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 3,06</t>
+          <t>-5,59; 2,77</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 1,51</t>
+          <t>-6,7; 1,9</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 3,74</t>
+          <t>-2,15; 4,9</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 4,64</t>
+          <t>-2,31; 4,26</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 4,52</t>
+          <t>-3,09; 3,49</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 3,52</t>
+          <t>-2,39; 3,83</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 3,02</t>
+          <t>-2,64; 2,82</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 3,39</t>
-        </is>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
-        <is>
-          <t>-2,69; 2,68</t>
-        </is>
-      </c>
-      <c r="M29" s="2" t="inlineStr">
-        <is>
-          <t>-3,87; 1,5</t>
-        </is>
-      </c>
-      <c r="N29" s="2" t="inlineStr">
-        <is>
-          <t>-3,73; 1,82</t>
+          <t>-3,84; 1,54</t>
         </is>
       </c>
     </row>
@@ -2448,62 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-3,21%</t>
+          <t>-3,69%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-8,21%</t>
+          <t>-8,08%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-2,85%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-2,76%</t>
+          <t>-0,08%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
-        </is>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>0,35%</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="inlineStr">
-        <is>
-          <t>-3,67%</t>
-        </is>
-      </c>
-      <c r="N30" s="2" t="inlineStr">
-        <is>
-          <t>-2,84%</t>
+          <t>-3,68%</t>
         </is>
       </c>
     </row>
@@ -2516,76 +2087,68 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 14,86</t>
+          <t>-11,74; 15,33</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 9,69</t>
+          <t>-15,78; 8,88</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-19,86; 4,8</t>
+          <t>-19,05; 5,88</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 11,88</t>
+          <t>-6,04; 14,66</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 14,16</t>
+          <t>-6,37; 12,91</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 13,69</t>
+          <t>-8,44; 10,68</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 10,73</t>
+          <t>-6,67; 11,79</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 9,04</t>
+          <t>-7,34; 8,56</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 10,42</t>
-        </is>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
-        <is>
-          <t>-7,55; 8,43</t>
-        </is>
-      </c>
-      <c r="M31" s="2" t="inlineStr">
-        <is>
-          <t>-11,07; 4,63</t>
-        </is>
-      </c>
-      <c r="N31" s="2" t="inlineStr">
-        <is>
-          <t>-10,65; 5,46</t>
+          <t>-10,77; 4,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
